--- a/Message/Messages.xlsx
+++ b/Message/Messages.xlsx
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>There is an error on server.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,6 +63,10 @@
   </si>
   <si>
     <t>There is user with the same {1}.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,24 +250,6 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -341,13 +323,35 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -355,12 +359,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -377,13 +377,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D30" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D30" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D30"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Type" dataDxfId="5"/>
-    <tableColumn id="2" name="MessageCode" dataDxfId="4"/>
-    <tableColumn id="3" name="Args" dataDxfId="3"/>
-    <tableColumn id="4" name="Message" dataDxfId="2"/>
+    <tableColumn id="1" name="Type" dataDxfId="3"/>
+    <tableColumn id="2" name="MessageCode" dataDxfId="2"/>
+    <tableColumn id="3" name="Args" dataDxfId="1"/>
+    <tableColumn id="4" name="Message" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -679,7 +679,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -736,13 +736,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -834,11 +834,11 @@
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
